--- a/user-data/stat-capacity/stat-capacity.xlsx
+++ b/user-data/stat-capacity/stat-capacity.xlsx
@@ -102,69 +102,69 @@
     <t>54</t>
   </si>
   <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>DJ</t>
   </si>
   <si>
@@ -372,7 +372,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -516,7 +516,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1080,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1160,7 +1160,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -1243,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1483,7 +1483,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1583,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -1743,7 +1743,7 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1803,7 +1803,7 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>

--- a/user-data/stat-capacity/stat-capacity.xlsx
+++ b/user-data/stat-capacity/stat-capacity.xlsx
@@ -33,6 +33,24 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Bank Statistical Capacity Indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://databank.worldbank.org/data/reports.aspx?source=Statistical-capacity-indicators#</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -45,10 +63,22 @@
     <t xml:space="preserve">49</t>
   </si>
   <si>
-    <t xml:space="preserve">World Bank Statistical Capacity Indicators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://databank.worldbank.org/data/reports.aspx?source=Statistical-capacity-indicators#</t>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
   </si>
   <si>
     <t xml:space="preserve">BF</t>
@@ -69,28 +99,79 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
     <t xml:space="preserve">54</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -99,69 +180,6 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
@@ -171,6 +189,276 @@
     <t xml:space="preserve">90</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
@@ -181,294 +469,6 @@
   </si>
   <si>
     <t xml:space="preserve">No information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1004,10 +1004,10 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1018,16 +1018,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1038,13 +1038,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -1064,7 +1064,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1084,7 +1084,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1144,7 +1144,7 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
@@ -1164,10 +1164,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1178,16 +1178,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1218,16 +1218,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1238,34 +1238,36 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16"/>
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1276,16 +1278,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1296,16 +1298,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1316,16 +1318,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1336,16 +1338,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1356,16 +1358,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1405,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1416,16 +1418,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1445,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1456,16 +1458,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
         <v>84</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
         <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1485,7 +1487,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1496,16 +1498,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
         <v>89</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
         <v>90</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>91</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1516,16 +1518,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
         <v>92</v>
       </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1536,16 +1538,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
         <v>95</v>
-      </c>
-      <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -1556,16 +1558,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
         <v>97</v>
       </c>
-      <c r="B32" t="s">
-        <v>98</v>
-      </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -1576,16 +1578,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
         <v>99</v>
       </c>
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -1596,16 +1598,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
         <v>101</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
         <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>103</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -1616,16 +1618,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
         <v>104</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
         <v>105</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -1636,16 +1638,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
         <v>107</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
         <v>108</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>109</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1656,16 +1658,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="B37" t="s">
-        <v>111</v>
-      </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -1676,16 +1678,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
         <v>112</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
         <v>113</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>114</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -1696,16 +1698,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
         <v>115</v>
       </c>
-      <c r="B39" t="s">
-        <v>116</v>
-      </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -1716,16 +1718,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="B40" t="s">
-        <v>118</v>
-      </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -1736,16 +1738,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
         <v>119</v>
       </c>
-      <c r="B41" t="s">
-        <v>120</v>
-      </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1756,16 +1758,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
         <v>121</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
         <v>122</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>78</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -1782,10 +1784,10 @@
         <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1802,10 +1804,10 @@
         <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -1816,16 +1818,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
         <v>128</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
         <v>129</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>130</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -1836,16 +1838,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
         <v>131</v>
       </c>
-      <c r="B46" t="s">
-        <v>132</v>
-      </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -1856,16 +1858,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" t="s">
         <v>133</v>
       </c>
-      <c r="B47" t="s">
-        <v>134</v>
-      </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -1876,16 +1878,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
         <v>135</v>
       </c>
-      <c r="B48" t="s">
-        <v>136</v>
-      </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -1896,16 +1898,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
         <v>138</v>
-      </c>
-      <c r="B49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>140</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -1916,16 +1918,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -1936,16 +1938,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -1956,16 +1958,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -1976,13 +1978,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
         <v>143</v>
@@ -1996,20 +1998,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" t="s">
         <v>150</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>151</v>
       </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
+      <c r="E54"/>
       <c r="F54" t="s">
         <v>11</v>
       </c>
@@ -2022,10 +2022,10 @@
         <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -2042,7 +2042,7 @@
         <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
         <v>156</v>

--- a/user-data/stat-capacity/stat-capacity.xlsx
+++ b/user-data/stat-capacity/stat-capacity.xlsx
@@ -33,6 +33,24 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Bank Statistical Capacity Indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://databank.worldbank.org/data/reports.aspx?source=Statistical-capacity-indicators#</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -45,10 +63,22 @@
     <t xml:space="preserve">49</t>
   </si>
   <si>
-    <t xml:space="preserve">World Bank Statistical Capacity Indicators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://databank.worldbank.org/data/reports.aspx?source=Statistical-capacity-indicators#</t>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
   </si>
   <si>
     <t xml:space="preserve">BF</t>
@@ -69,28 +99,79 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
     <t xml:space="preserve">54</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -99,69 +180,6 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
@@ -171,6 +189,276 @@
     <t xml:space="preserve">90</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
@@ -181,294 +469,6 @@
   </si>
   <si>
     <t xml:space="preserve">No information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1004,10 +1004,10 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1018,16 +1018,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1038,13 +1038,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -1064,7 +1064,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1084,7 +1084,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1144,7 +1144,7 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
@@ -1164,10 +1164,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1178,16 +1178,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1218,16 +1218,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1238,34 +1238,36 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16"/>
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1276,16 +1278,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1296,16 +1298,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1316,16 +1318,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1336,16 +1338,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1356,16 +1358,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1405,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1416,16 +1418,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1445,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1456,16 +1458,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
         <v>84</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
         <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1485,7 +1487,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1496,16 +1498,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
         <v>89</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
         <v>90</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>91</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1516,16 +1518,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
         <v>92</v>
       </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1536,16 +1538,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
         <v>95</v>
-      </c>
-      <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -1556,16 +1558,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
         <v>97</v>
       </c>
-      <c r="B32" t="s">
-        <v>98</v>
-      </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -1576,16 +1578,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
         <v>99</v>
       </c>
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -1596,16 +1598,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
         <v>101</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
         <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>103</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -1616,16 +1618,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
         <v>104</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
         <v>105</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -1636,16 +1638,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
         <v>107</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
         <v>108</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>109</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1656,16 +1658,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="B37" t="s">
-        <v>111</v>
-      </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -1676,16 +1678,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
         <v>112</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
         <v>113</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>114</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -1696,16 +1698,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
         <v>115</v>
       </c>
-      <c r="B39" t="s">
-        <v>116</v>
-      </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -1716,16 +1718,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="B40" t="s">
-        <v>118</v>
-      </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -1736,16 +1738,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
         <v>119</v>
       </c>
-      <c r="B41" t="s">
-        <v>120</v>
-      </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1756,16 +1758,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
         <v>121</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
         <v>122</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>78</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -1782,10 +1784,10 @@
         <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1802,10 +1804,10 @@
         <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -1816,16 +1818,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
         <v>128</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
         <v>129</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>130</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -1836,16 +1838,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
         <v>131</v>
       </c>
-      <c r="B46" t="s">
-        <v>132</v>
-      </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -1856,16 +1858,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" t="s">
         <v>133</v>
       </c>
-      <c r="B47" t="s">
-        <v>134</v>
-      </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -1876,16 +1878,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
         <v>135</v>
       </c>
-      <c r="B48" t="s">
-        <v>136</v>
-      </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -1896,16 +1898,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
         <v>138</v>
-      </c>
-      <c r="B49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>140</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -1916,16 +1918,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -1936,16 +1938,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -1956,16 +1958,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -1976,13 +1978,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
         <v>143</v>
@@ -1996,20 +1998,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" t="s">
         <v>150</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>151</v>
       </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
+      <c r="E54"/>
       <c r="F54" t="s">
         <v>11</v>
       </c>
@@ -2022,10 +2022,10 @@
         <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -2042,7 +2042,7 @@
         <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
         <v>156</v>

--- a/user-data/stat-capacity/stat-capacity.xlsx
+++ b/user-data/stat-capacity/stat-capacity.xlsx
@@ -15,10 +15,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">colour</t>
@@ -27,10 +27,10 @@
     <t xml:space="preserve">detail</t>
   </si>
   <si>
-    <t xml:space="preserve">source-title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source-link</t>
+    <t xml:space="preserve">source_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_link</t>
   </si>
   <si>
     <t xml:space="preserve">DZ</t>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange</t>
+    <t xml:space="preserve">orange</t>
   </si>
   <si>
     <t xml:space="preserve">52</t>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">Red</t>
+    <t xml:space="preserve">red</t>
   </si>
   <si>
     <t xml:space="preserve">49</t>
@@ -87,7 +87,7 @@
     <t xml:space="preserve">Burkina Faso</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
+    <t xml:space="preserve">green</t>
   </si>
   <si>
     <t xml:space="preserve">71</t>
@@ -102,69 +102,69 @@
     <t xml:space="preserve">54</t>
   </si>
   <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
     <t xml:space="preserve">CI</t>
   </si>
   <si>
-    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+    <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
     <t xml:space="preserve">47</t>
   </si>
   <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
     <t xml:space="preserve">DJ</t>
   </si>
   <si>
@@ -465,7 +465,7 @@
     <t xml:space="preserve">Western Sahara</t>
   </si>
   <si>
-    <t xml:space="preserve">Grey</t>
+    <t xml:space="preserve">grey</t>
   </si>
   <si>
     <t xml:space="preserve">No information</t>
@@ -489,37 +489,37 @@
     <t xml:space="preserve">Name: stat-capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: The Statistical Capacity Indicator provides an overview of the capacity of a country's national statistical system based on a diagnostic framework thereby assessing three dimensions: methodology, source data, and periodicity and timeliness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units of measure: NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: World Bank Statistical Capacity Indicators.</t>
+    <t xml:space="preserve">Description: The Statistical Capacity Indicator provides an overview of the capacity of a country's national statistical system based on a diagnostic framework thereby assessing three dimensions: methodology, source data, and periodicity and timeliness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units of measure:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -872,15 +872,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -894,31 +898,26 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1084,7 +1083,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1164,7 +1163,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -1247,7 +1246,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1487,7 +1486,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1587,7 +1586,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -1747,7 +1746,7 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1807,7 +1806,7 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>

--- a/user-data/stat-capacity/stat-capacity.xlsx
+++ b/user-data/stat-capacity/stat-capacity.xlsx
@@ -495,7 +495,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 80</t>
+    <t xml:space="preserve">Source: 81</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/stat-capacity/stat-capacity.xlsx
+++ b/user-data/stat-capacity/stat-capacity.xlsx
@@ -495,7 +495,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 81</t>
+    <t xml:space="preserve">Source: 83</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/stat-capacity/stat-capacity.xlsx
+++ b/user-data/stat-capacity/stat-capacity.xlsx
@@ -495,7 +495,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 80</t>
+    <t xml:space="preserve">Source: 83</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/stat-capacity/stat-capacity.xlsx
+++ b/user-data/stat-capacity/stat-capacity.xlsx
@@ -495,7 +495,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 83</t>
+    <t xml:space="preserve">Source: 82</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
